--- a/running/running.xlsx
+++ b/running/running.xlsx
@@ -1,124 +1,443 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView windowWidth="24800" windowHeight="9560"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" r:id="rId1"/>
     <sheet name="Silent HR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Running!$A$1:$K$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Running!$A$1:$K$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
-    <t>HR high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Date</t>
   </si>
   <si>
-    <t>HR low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Distances(KM)</t>
   </si>
   <si>
     <t>Start Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>End Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mins/1km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature(℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distances(KM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Time Used
 (H:M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mins/1km</t>
+  </si>
+  <si>
+    <t>Temperature(℃)</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>HR Average</t>
+  </si>
+  <si>
+    <t>HR high</t>
+  </si>
+  <si>
+    <t>HR low</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>HR average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="179" formatCode="h:mm;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="189" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="191" formatCode="m/d\ hh:mm"/>
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="m/d\ hh:mm"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,9 +445,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -139,44 +700,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,278 +1073,278 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="40.5" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10">
-        <v>44234</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10.01</v>
-      </c>
-      <c r="C2" s="11">
-        <v>44234.984027777777</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44235.034722222219</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="A2" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4.38</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44106.8756944444</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44106.8979166667</v>
+      </c>
+      <c r="E2" s="7">
         <f>D2-C2</f>
-        <v>5.0694444442342501E-2</v>
-      </c>
-      <c r="F2" s="7">
+        <v>0.0222222222218988</v>
+      </c>
+      <c r="F2" s="12">
         <f>E2/B2</f>
-        <v>5.0643800641700801E-3</v>
-      </c>
-      <c r="G2" s="6">
-        <v>19</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.73</v>
+        <v>0.0050735667173285</v>
+      </c>
+      <c r="G2" s="8">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.77</v>
       </c>
       <c r="I2" s="1">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J2" s="1">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="K2" s="1">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10">
-        <v>44233</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4.04</v>
-      </c>
-      <c r="C3" s="11">
-        <v>44233.972222222219</v>
-      </c>
-      <c r="D3" s="11">
-        <v>44233.993055555555</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="A3" s="4">
+        <v>44200</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44200.7743055556</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44200.7854166667</v>
+      </c>
+      <c r="E3" s="7">
         <f>D3-C3</f>
-        <v>2.0833333335758653E-2</v>
-      </c>
-      <c r="F3" s="7">
+        <v>0.0111111111109494</v>
+      </c>
+      <c r="F3" s="12">
         <f>E3/B3</f>
-        <v>5.1567656771679829E-3</v>
-      </c>
-      <c r="G3" s="6">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.8</v>
+        <v>0.00750750750739826</v>
+      </c>
+      <c r="G3" s="8">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.54</v>
       </c>
       <c r="I3" s="1">
-        <v>154</v>
-      </c>
-      <c r="J3" s="1">
-        <v>174</v>
-      </c>
-      <c r="K3" s="1">
-        <v>109</v>
+        <v>175</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10">
-        <v>44232</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10.84</v>
-      </c>
-      <c r="C4" s="11">
-        <v>44232.896527777775</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44232.957638888889</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="A4" s="4">
+        <v>44209</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44209.7583333333</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44209.7722222222</v>
+      </c>
+      <c r="E4" s="7">
         <f>D4-C4</f>
-        <v>6.1111111113859806E-2</v>
-      </c>
-      <c r="F4" s="7">
+        <v>0.0138888888905058</v>
+      </c>
+      <c r="F4" s="12">
         <f>E4/B4</f>
-        <v>5.6375563758173253E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.82</v>
+        <v>0.00555555555620231</v>
+      </c>
+      <c r="G4" s="8">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.5</v>
       </c>
       <c r="I4" s="1">
-        <v>157</v>
-      </c>
-      <c r="J4" s="1">
-        <v>182</v>
-      </c>
-      <c r="K4" s="1">
-        <v>119</v>
+        <v>165</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10">
-        <v>44227</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7.51</v>
-      </c>
-      <c r="C5" s="11">
-        <v>44227.935416666667</v>
-      </c>
-      <c r="D5" s="11">
-        <v>44227.977777777778</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="A5" s="4">
+        <v>44211</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.45</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44211.7590277778</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44211.7708333333</v>
+      </c>
+      <c r="E5" s="7">
         <f>D5-C5</f>
-        <v>4.2361111110949423E-2</v>
-      </c>
-      <c r="F5" s="7">
+        <v>0.0118055555576575</v>
+      </c>
+      <c r="F5" s="12">
         <f>E5/B5</f>
-        <v>5.6406273117109752E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.8</v>
+        <v>0.00481859410516633</v>
+      </c>
+      <c r="G5" s="8">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.71</v>
       </c>
       <c r="I5" s="1">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="J5" s="1">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10">
-        <v>44223</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C6" s="11">
-        <v>44223.006249999999</v>
-      </c>
-      <c r="D6" s="11">
-        <v>44223.01458333333</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.03</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44217.9416666667</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44217.9743055556</v>
+      </c>
+      <c r="E6" s="7">
         <f>D6-C6</f>
-        <v>8.333333331393078E-3</v>
-      </c>
-      <c r="F6" s="7">
+        <v>0.0326388888934162</v>
+      </c>
+      <c r="F6" s="12">
         <f>E6/B6</f>
-        <v>3.7878787869968533E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.83</v>
+        <v>0.00464280069607627</v>
+      </c>
+      <c r="G6" s="8">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.81</v>
       </c>
       <c r="I6" s="1">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J6" s="1">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K6" s="1">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="4">
         <v>44219</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3.6</v>
       </c>
-      <c r="C7" s="11">
-        <v>44219.923611111109</v>
-      </c>
-      <c r="D7" s="11">
-        <v>44219.943749999999</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="6">
+        <v>44219.9236111111</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44219.94375</v>
+      </c>
+      <c r="E7" s="7">
         <f>D7-C7</f>
-        <v>2.0138888889050577E-2</v>
-      </c>
-      <c r="F7" s="7">
+        <v>0.0201388888890506</v>
+      </c>
+      <c r="F7" s="12">
         <f>E7/B7</f>
-        <v>5.5941358025140492E-3</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.00559413580251405</v>
+      </c>
+      <c r="G7" s="8">
         <v>18</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>0.77</v>
       </c>
       <c r="I7" s="1">
@@ -750,233 +1358,308 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10">
-        <v>44217</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7.03</v>
-      </c>
-      <c r="C8" s="11">
-        <v>44217.941666666666</v>
-      </c>
-      <c r="D8" s="11">
-        <v>44217.974305555559</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44223.00625</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44223.0145833333</v>
+      </c>
+      <c r="E8" s="7">
         <f>D8-C8</f>
-        <v>3.2638888893416151E-2</v>
-      </c>
-      <c r="F8" s="7">
+        <v>0.00833333333139308</v>
+      </c>
+      <c r="F8" s="12">
         <f>E8/B8</f>
-        <v>4.6428006960762659E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.81</v>
+        <v>0.00378787878699685</v>
+      </c>
+      <c r="G8" s="8">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.83</v>
       </c>
       <c r="I8" s="1">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="J8" s="1">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K8" s="1">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10">
-        <v>44211</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C9" s="11">
-        <v>44211.759027777778</v>
-      </c>
-      <c r="D9" s="11">
-        <v>44211.770833333336</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" s="4">
+        <v>44227</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.51</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44227.9354166667</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44227.9777777778</v>
+      </c>
+      <c r="E9" s="7">
         <f>D9-C9</f>
-        <v>1.1805555557657499E-2</v>
-      </c>
-      <c r="F9" s="7">
+        <v>0.0423611111109494</v>
+      </c>
+      <c r="F9" s="12">
         <f>E9/B9</f>
-        <v>4.818594105166326E-3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.71</v>
+        <v>0.00564062731171098</v>
+      </c>
+      <c r="G9" s="8">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.8</v>
       </c>
       <c r="I9" s="1">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K9" s="1">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10">
-        <v>44209</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="11">
-        <v>44209.758333333331</v>
-      </c>
-      <c r="D10" s="11">
-        <v>44209.772222222222</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="4">
+        <v>44232</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10.84</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44232.8965277778</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44232.9576388889</v>
+      </c>
+      <c r="E10" s="7">
         <f>D10-C10</f>
-        <v>1.3888888890505768E-2</v>
-      </c>
-      <c r="F10" s="7">
+        <v>0.0611111111138598</v>
+      </c>
+      <c r="F10" s="12">
         <f>E10/B10</f>
-        <v>5.5555555562023075E-3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>13</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.5</v>
+        <v>0.00563755637581733</v>
+      </c>
+      <c r="G10" s="8">
+        <v>18</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.82</v>
       </c>
       <c r="I10" s="1">
-        <v>165</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="J10" s="1">
+        <v>182</v>
+      </c>
+      <c r="K10" s="1">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10">
-        <v>44200</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="C11" s="11">
-        <v>44200.774305555555</v>
-      </c>
-      <c r="D11" s="11">
-        <v>44200.785416666666</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="4">
+        <v>44233</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44233.9722222222</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44233.9930555556</v>
+      </c>
+      <c r="E11" s="7">
         <f>D11-C11</f>
-        <v>1.1111111110949423E-2</v>
-      </c>
-      <c r="F11" s="7">
+        <v>0.0208333333357587</v>
+      </c>
+      <c r="F11" s="12">
         <f>E11/B11</f>
-        <v>7.5075075073982589E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.54</v>
+        <v>0.00515676567716798</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.8</v>
       </c>
       <c r="I11" s="1">
-        <v>175</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="J11" s="1">
+        <v>174</v>
+      </c>
+      <c r="K11" s="1">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10">
-        <v>44106</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4.38</v>
-      </c>
-      <c r="C12" s="11">
-        <v>44106.875694444447</v>
-      </c>
-      <c r="D12" s="11">
-        <v>44106.897916666669</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="4">
+        <v>44234</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.01</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44234.9840277778</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44235.0347222222</v>
+      </c>
+      <c r="E12" s="7">
         <f>D12-C12</f>
-        <v>2.2222222221898846E-2</v>
-      </c>
-      <c r="F12" s="7">
+        <v>0.0506944444423425</v>
+      </c>
+      <c r="F12" s="12">
         <f>E12/B12</f>
-        <v>5.0735667173285037E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>27</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.77</v>
+        <v>0.00506438006417008</v>
+      </c>
+      <c r="G12" s="8">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.73</v>
       </c>
       <c r="I12" s="1">
+        <v>159</v>
+      </c>
+      <c r="J12" s="1">
+        <v>170</v>
+      </c>
+      <c r="K12" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4">
+        <v>44239</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44239.94375</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44239.9680555556</v>
+      </c>
+      <c r="E13" s="7">
+        <f>D13-C13</f>
+        <v>0.0243055555547471</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13/B13</f>
+        <v>0.00580084858108523</v>
+      </c>
+      <c r="G13" s="8">
+        <v>17</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>151</v>
+      </c>
+      <c r="J13" s="1">
         <v>173</v>
       </c>
-      <c r="J12" s="1">
-        <v>203</v>
-      </c>
-      <c r="K12" s="1">
-        <v>104</v>
+      <c r="K13" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4">
+        <v>44241</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44241.8569444444</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44241.8722222222</v>
+      </c>
+      <c r="E14" s="7">
+        <f>D14-C14</f>
+        <v>0.015277777776646</v>
+      </c>
+      <c r="F14" s="12">
+        <f>E14/B14</f>
+        <v>0.00528642829641729</v>
+      </c>
+      <c r="G14" s="8">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="I14" s="1">
+        <v>153</v>
+      </c>
+      <c r="J14" s="1">
+        <v>162</v>
+      </c>
+      <c r="K14" s="1">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K12">
-    <sortState ref="A2:K12">
-      <sortCondition descending="1" ref="A1:A12"/>
+  <autoFilter ref="A1:K14">
+    <sortState ref="A2:K14">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>44236</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>94</v>
       </c>
       <c r="C2" s="1">
@@ -987,7 +1670,7 @@
       <c r="A3" s="3">
         <v>44223</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>80.3</v>
       </c>
       <c r="C3" s="1">
@@ -995,8 +1678,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>